--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t xml:space="preserve">bestfit_angle_relax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_angle_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_angle_standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_angle_relax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_angle_relax</t>
   </si>
   <si>
     <t xml:space="preserve">fsr_matrix_1d_datafile</t>
@@ -164,17 +176,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="20.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="28.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,6 +231,18 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -231,47 +266,18 @@
       <c r="G2" s="0" t="n">
         <v>811</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
+      <c r="L2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>176</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1036</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>811</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="N3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -43,34 +43,40 @@
     <t xml:space="preserve">bestfit_angle_relax</t>
   </si>
   <si>
-    <t xml:space="preserve">start_angle_standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_angle_standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_angle_relax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_angle_relax</t>
+    <t xml:space="preserve">standard_s_mtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard_e_mtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relax_s_mtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relax_e_mtime</t>
   </si>
   <si>
     <t xml:space="preserve">fsr_matrix_1d_datafile</t>
   </si>
   <si>
-    <t xml:space="preserve">fsr_matrix_2d_datafile</t>
-  </si>
-  <si>
     <t xml:space="preserve">seat_datafile</t>
   </si>
   <si>
-    <t xml:space="preserve">20210303T160024-1d.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210303T160024-2d.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_01.xls</t>
+    <t xml:space="preserve">2021-03-03 16:00:52.821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-03 16:00:58.913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-03 16:01:20.314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-03 16:01:26.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210303T160024-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_01m.csv</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -102,6 +108,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK KR"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,13 +157,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -176,13 +203,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
@@ -191,57 +218,54 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,18 +290,27 @@
       <c r="G2" s="0" t="n">
         <v>811</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N3" s="2"/>
+      <c r="M3" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -77,6 +77,96 @@
   </si>
   <si>
     <t xml:space="preserve">data_01m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 10:45:51.782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 10:45:57.515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 10:46:18.932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 10:46:25.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210310T104529-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_02m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 11:06:35.585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 11:06:41.334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 11:07:02.313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 11:07:08.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210310T110616-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_03m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 13:25:47.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 13:25:53.709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 13:26:15.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 13:26:21.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210310T132548-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_04m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:33:35.481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:33:41.449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:34:02.756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:34:08.864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210310T153307-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_05m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:49:33.587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:49:39.508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:50:00.284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-10 15:50:06.314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210310T154900-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_06m.csv</t>
   </si>
 </sst>
 </file>
@@ -87,7 +177,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -108,11 +198,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK KR"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,14 +257,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -203,13 +280,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
@@ -218,9 +295,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.04"/>
@@ -252,13 +329,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -290,27 +367,229 @@
       <c r="G2" s="0" t="n">
         <v>811</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M3" s="6"/>
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>784</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>689</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>809</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>738</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>712</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1016</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>768</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>805</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>638</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -167,6 +167,96 @@
   </si>
   <si>
     <t xml:space="preserve">data_06m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:17:54.548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:18:00.297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:18:21.432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:18:27.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210311T131751-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_07m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:45:19.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:45:25.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:45:46.499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 13:45:52.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210311T134516-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_08m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:09:55.529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:10:01.325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:10:22.461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:10:28.350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210311T150952-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_09m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:37:49.974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:37:55.722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:38:16.811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:38:22.528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210311T153746-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_10m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:48:12.517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:48:18.515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:48:38.854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11 15:48:44.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210311T154809-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_11m.csv</t>
   </si>
 </sst>
 </file>
@@ -280,13 +370,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
@@ -591,6 +681,196 @@
         <v>48</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>988</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>731</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>827</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>784</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>935</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>699</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1049</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>731</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -372,16 +372,15 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.41"/>
@@ -682,6 +681,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" s="0" t="n">
         <v>170</v>
       </c>
@@ -720,6 +722,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="B9" s="0" t="n">
         <v>166</v>
       </c>
@@ -758,6 +763,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="B10" s="0" t="n">
         <v>178</v>
       </c>
@@ -796,6 +804,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="B11" s="0" t="n">
         <v>173</v>
       </c>
@@ -834,6 +845,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B12" s="0" t="n">
         <v>180</v>
       </c>

--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -257,6 +257,94 @@
   </si>
   <si>
     <t xml:space="preserve">data_11m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:36:04.405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:36:10.310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:36:31.538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:36:37.521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210316T163601-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_12m.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:50:32.336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:50:38.210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:50:59.283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 16:51:05.250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210316T165029-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_13m.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-16 17:20:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12.222</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-16 17:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20:18.002</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 17:20:39.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16 17:20:44.996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210316T172009-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_14m.csv</t>
   </si>
 </sst>
 </file>
@@ -267,7 +355,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -288,6 +376,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,7 +426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,6 +447,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,13 +468,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
@@ -885,6 +983,136 @@
         <v>78</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>985</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>857</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>757</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>715</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -115,19 +115,19 @@
     <t xml:space="preserve">data_03m.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-03-10 13:25:47.914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-10 13:25:53.709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-10 13:26:15.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-10 13:26:21.218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210310T132548-1dm.csv</t>
+    <t xml:space="preserve">2021-03-18 17:01:06.520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-18 17:01:12.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-18 17:01:35.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-18 17:01:41.356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210318T170103-1dm.csv</t>
   </si>
   <si>
     <t xml:space="preserve">data_04m.csv</t>
@@ -301,6 +301,7 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2021-03-16 17:20:</t>
     </r>
@@ -321,6 +322,7 @@
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2021-03-16 17:</t>
     </r>
@@ -345,6 +347,806 @@
   </si>
   <si>
     <t xml:space="preserve">data_14m.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">25:43.153</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10:25:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">49.292</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10:26:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12.490</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10:26:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">18.660</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">20210318T102539-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_15m.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">37:34.155</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">40,397</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">03.360</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">09.546</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">20210318T103731-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_16m.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">45:26.380</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">32.222</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">55.045</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">00.934</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">20210318T104523-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_17m.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">19.483</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">25.044</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">47.679</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">53.615</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">20210318T105316-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_18m.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">34.446</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">40.523</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">03.142</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2021-03-18 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK KR"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">09.422</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">20210318T110231-1dm.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_19m.csv</t>
   </si>
 </sst>
 </file>
@@ -355,7 +1157,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK KR"/>
@@ -382,6 +1184,18 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK KR"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -426,7 +1240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -451,6 +1265,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,13 +1290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.88"/>
@@ -483,7 +1305,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.57"/>
@@ -1106,12 +1928,210 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4"/>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>983</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>693</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>953</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>723</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1035</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>787</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>755</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>822</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/2021_legrest/data/train/data_config.xlsx
+++ b/2021_legrest/data/train/data_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byunghunhwang/mlpack/2021_legrest/data/train/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hwang\dev\mlpack\2021_legrest\data\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8F3FDB-66E4-F340-BE09-EF8A11D92C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF708E3D-B32E-4E02-8B3F-8CC9C918F70B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="500" windowWidth="31700" windowHeight="19680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="6045" windowWidth="30525" windowHeight="23475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>id</t>
   </si>
@@ -2331,6 +2331,342 @@
   </si>
   <si>
     <t>data_50m.csv</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-25-16-448</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-25-10-215</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-24-47-034</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-24-40-723</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-38-11-327</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-38-05-235</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-37-42-396</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-37-36-320</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-45-10-482</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-45-04-390</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-44-41-490</t>
+  </si>
+  <si>
+    <t>2021-03-24-10-44-35-601</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-48-03-784</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-47-57-239</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-47-34-416</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-47-28-230</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-54-59-886</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-54-53-731</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-54-30-830</t>
+  </si>
+  <si>
+    <t>2021-03-24-12-54-25-175</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-17-56-841</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-18-02-965</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-18-25-803</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-18-31-927</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-45-51-845</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-45-57-969</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-46-27-071</t>
+  </si>
+  <si>
+    <t>2021-03-24-13-46-20-542</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-27-32-570</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-27-38-396</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-28-01-344</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-28-07-468</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-28-47-083</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-28-40-740</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-28-18-402</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-28-12-403</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-08-18-605</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-08-12-138</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-08-41-350</t>
+  </si>
+  <si>
+    <t>2021-03-24-14-08-47-895</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-35-02-347</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-35-08-720</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-35-31-559</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-35-37-885</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-45-29-994</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-45-36-336</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-45-58-815</t>
+  </si>
+  <si>
+    <t>2021-03-24-15-46-05-204</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-18-13-306</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-18-19-258</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-18-48-689</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-18-42-362</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-26-36-978</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-26-42-618</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-27-05-565</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-27-11-533</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-34-31-912</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-34-38-036</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-35-00-609</t>
+  </si>
+  <si>
+    <t>2021-03-24-16-35-06-654</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-08-18-905</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-08-25-044</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-08-48-008</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-08-54-178</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-18-33-809</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-18-40-026</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-19-03-193</t>
+  </si>
+  <si>
+    <t>2021-03-25-09-19-09-629</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-28-00-352</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-27-53-744</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-27-30-719</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-27-24-314</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-35-36-634</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-35-42-710</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-36-05-549</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-36-11-688</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-44-20-860</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-44-27-437</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-44-50-182</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-44-56-414</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-57-49-790</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-57-55-804</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-58-18-595</t>
+  </si>
+  <si>
+    <t>2021-03-25-10-58-24-906</t>
+  </si>
+  <si>
+    <t>20210324T102437-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T103733-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T104431-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T124725-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T125421-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T131754-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T134520-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T140742-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T142724-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T152730-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T153459-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T154527-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T161810-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T162633-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210324T163428-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210325T090815-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210325T091830-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210325T102721-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210325T103533-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210325T104418-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20210325T105746-1dm.csv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2389,7 +2725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2401,6 +2737,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2718,24 +3057,24 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="1024" max="1024" width="11.5" customWidth="1"/>
+    <col min="1024" max="1024" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3312,7 +3651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.5" customHeight="1">
+    <row r="15" spans="1:13" ht="12.6" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3353,7 +3692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14" customHeight="1">
+    <row r="16" spans="1:13" ht="14.1" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3435,7 +3774,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5" customHeight="1">
+    <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3727,16 +4066,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3931,16 +4270,39 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>181</v>
+      </c>
+      <c r="C30">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
       <c r="F30">
         <v>984</v>
       </c>
       <c r="G30">
         <v>686</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="H30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="M30" s="4" t="s">
         <v>176</v>
       </c>
@@ -3949,13 +4311,39 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>177</v>
+      </c>
+      <c r="C31">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31">
         <v>768</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="G31">
+        <v>610</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="M31" s="4" t="s">
         <v>177</v>
       </c>
@@ -3964,10 +4352,39 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="B32">
+        <v>163</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>953</v>
+      </c>
+      <c r="G32">
+        <v>617</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
       <c r="M32" s="4" t="s">
         <v>178</v>
       </c>
@@ -3976,10 +4393,39 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="B33">
+        <v>175</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>983</v>
+      </c>
+      <c r="G33">
+        <v>682</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="M33" s="4" t="s">
         <v>179</v>
       </c>
@@ -3988,10 +4434,39 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="B34">
+        <v>163</v>
+      </c>
+      <c r="C34">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1019</v>
+      </c>
+      <c r="G34">
+        <v>643</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="M34" s="4" t="s">
         <v>180</v>
       </c>
@@ -4000,10 +4475,39 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="B35">
+        <v>177</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>843</v>
+      </c>
+      <c r="G35">
+        <v>613</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="M35" s="4" t="s">
         <v>181</v>
       </c>
@@ -4012,10 +4516,39 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="B36">
+        <v>176</v>
+      </c>
+      <c r="C36">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1079</v>
+      </c>
+      <c r="G36">
+        <v>731</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="M36" s="4" t="s">
         <v>182</v>
       </c>
@@ -4024,10 +4557,39 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="B37">
+        <v>183</v>
+      </c>
+      <c r="C37">
+        <v>103</v>
+      </c>
+      <c r="D37">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>835</v>
+      </c>
+      <c r="G37">
+        <v>781</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="M37" s="4" t="s">
         <v>183</v>
       </c>
@@ -4036,10 +4598,39 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="B38">
+        <v>175</v>
+      </c>
+      <c r="C38">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>953</v>
+      </c>
+      <c r="G38">
+        <v>714</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="M38" s="4" t="s">
         <v>184</v>
       </c>
@@ -4048,10 +4639,39 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="B39">
+        <v>181</v>
+      </c>
+      <c r="C39">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>838</v>
+      </c>
+      <c r="G39">
+        <v>739</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="M39" s="4" t="s">
         <v>185</v>
       </c>
@@ -4060,10 +4680,39 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="B40">
+        <v>177</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>42</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>851</v>
+      </c>
+      <c r="G40">
+        <v>723</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>292</v>
+      </c>
       <c r="M40" s="4" t="s">
         <v>186</v>
       </c>
@@ -4072,10 +4721,39 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="B41">
+        <v>178</v>
+      </c>
+      <c r="C41">
+        <v>87</v>
+      </c>
+      <c r="D41">
+        <v>43</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>897</v>
+      </c>
+      <c r="G41">
+        <v>674</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="M41" s="4" t="s">
         <v>187</v>
       </c>
@@ -4084,10 +4762,39 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="B42">
+        <v>168</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1006</v>
+      </c>
+      <c r="G42">
+        <v>635</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="M42" s="4" t="s">
         <v>188</v>
       </c>
@@ -4096,10 +4803,39 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="B43">
+        <v>165</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>768</v>
+      </c>
+      <c r="G43">
+        <v>608</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="M43" s="4" t="s">
         <v>189</v>
       </c>
@@ -4108,10 +4844,39 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="B44">
+        <v>161</v>
+      </c>
+      <c r="C44">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>934</v>
+      </c>
+      <c r="G44">
+        <v>632</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="M44" s="4" t="s">
         <v>190</v>
       </c>
@@ -4120,10 +4885,39 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="B45">
+        <v>168</v>
+      </c>
+      <c r="C45">
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <v>41</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>928</v>
+      </c>
+      <c r="G45">
+        <v>661</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="M45" s="4" t="s">
         <v>191</v>
       </c>
@@ -4132,10 +4926,39 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="B46">
+        <v>174</v>
+      </c>
+      <c r="C46">
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1357</v>
+      </c>
+      <c r="G46">
+        <v>749</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="M46" s="4" t="s">
         <v>192</v>
       </c>
@@ -4144,10 +4967,36 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="B47">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>841</v>
+      </c>
+      <c r="G47">
+        <v>619</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
       <c r="M47" s="4" t="s">
         <v>193</v>
       </c>
@@ -4156,10 +5005,39 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="B48">
+        <v>178</v>
+      </c>
+      <c r="C48">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1047</v>
+      </c>
+      <c r="G48">
+        <v>903</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="M48" s="4" t="s">
         <v>194</v>
       </c>
@@ -4168,10 +5046,39 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="B49">
+        <v>168</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1154</v>
+      </c>
+      <c r="G49">
+        <v>731</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="M49" s="4" t="s">
         <v>195</v>
       </c>
@@ -4180,10 +5087,39 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="B50">
+        <v>174</v>
+      </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1227</v>
+      </c>
+      <c r="G50">
+        <v>865</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="M50" s="4" t="s">
         <v>196</v>
       </c>
@@ -4192,10 +5128,39 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="B51">
+        <v>171</v>
+      </c>
+      <c r="C51">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>837</v>
+      </c>
+      <c r="G51">
+        <v>744</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="M51" s="4" t="s">
         <v>197</v>
       </c>
@@ -4203,7 +5168,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
